--- a/va_facility_data_2025-02-20/Monroe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monroe%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Monroe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monroe%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R662384b720af416d81dc2d41f9da3e35"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2602499d96cd4fffa3072d078944f65b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc85c7c667a7f4397aab40f1084cd8945"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rded847355e1a422ea2ca52afd3ab399f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb5aeee5a4e954802805624d080007966"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R905e9ae712934520b254a1e2b5bc0a18"/>
   </x:sheets>
 </x:workbook>
 </file>
